--- a/translations.xlsx
+++ b/translations.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Gympassport Translations" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="➡️Gym Profiles List Screenshot " sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Gympassport Translations 2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="xxx" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Queries" sheetId="4" state="hidden" r:id="rId5"/>
     <sheet name="Provisional Home and Left Menu " sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="Release 1" sheetId="6" state="hidden" r:id="rId7"/>
@@ -25,97 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Lógica de front: ({rating_count} {rating_count, plural, one {rating} other {ratings}})
-+fabio.tetsuo@gympass.com
-	-Bruno Alves</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="D71" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">+bruno.alves@gympass.com can we create a task for this key as well? The other day I noticed it wasn't translated
-_Assigned to Bruno Alves_
-	-Claudia Piga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">juliana.lopes@gympass.com does closing date mean the end of the month?
-	-Alexandra Edel
-+bruno.alves@gympass.com can you help out?
-	-Juliana Lopes
-Yes! The cycle starts and ends with the month, and the gym receive the value on the 15th day of the next month.
-	-Bruno Alves</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">+claudia.piga@gympass.com what should I be putting here?
-_Assigned to Claudia Piga_
-	-Maribel Martin
-The right translation, the field won't show in UK anyways
-	-Claudia Piga</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="734">
   <si>
     <t xml:space="preserve">Component</t>
   </si>
@@ -225,7 +136,7 @@
     <t xml:space="preserve">gym_new_indicators_checkins</t>
   </si>
   <si>
-    <t xml:space="preserve">gym_partner_web.partner_data.gym_profile.ratings</t>
+    <t xml:space="preserve">gym_partner_web.gym_profile.gyms_list.ratings</t>
   </si>
   <si>
     <t xml:space="preserve">({rating_count} {rating_count, plural, one {avaliação} other {avaliações}})</t>
@@ -255,7 +166,7 @@
     <t xml:space="preserve">({rating_count} {rating_count, plural, one {Avaliação} other {Avaliações}})</t>
   </si>
   <si>
-    <t xml:space="preserve">gym_partner_web.partner_data.gym_profile.edit</t>
+    <t xml:space="preserve">gym_partner_web.gym_profile.gyms_list.edit</t>
   </si>
   <si>
     <t xml:space="preserve">Editar</t>
@@ -279,7 +190,7 @@
     <t xml:space="preserve">Modificar</t>
   </si>
   <si>
-    <t xml:space="preserve">gym_partner_web.partner_data.gym_profile.visit</t>
+    <t xml:space="preserve">gym_partner_web.gym_profile.gyms_list.visit</t>
   </si>
   <si>
     <t xml:space="preserve">Visitar</t>
@@ -306,7 +217,7 @@
     <t xml:space="preserve">Bezoeken</t>
   </si>
   <si>
-    <t xml:space="preserve">gym_partner_web.partner_data.gym_profile.page_title</t>
+    <t xml:space="preserve">gym_partner_web.gym_profile.gyms_list.page_title</t>
   </si>
   <si>
     <t xml:space="preserve">Perfil da academia</t>
@@ -339,13 +250,55 @@
     <t xml:space="preserve">Perfil do ginásio </t>
   </si>
   <si>
-    <t xml:space="preserve">gym_partner_web.partner_data.gym_id</t>
+    <t xml:space="preserve">gym_partner_web.gym_profile.gym_id</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.gym_profile.gyms_list.edit_open_hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.open_hours.page_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.open_hours.go_back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.open_hours.visit_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.open_hours.card.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.open_hours.card.full_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 hours opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym_partner_web.open_hours.card.closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed</t>
   </si>
   <si>
     <t xml:space="preserve">This will show the number of ratings of the Gym Page</t>
@@ -3200,7 +3153,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image3.png" descr=""/>
+        <xdr:cNvPr id="3" name="image5.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3242,7 +3195,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image5.png" descr=""/>
+        <xdr:cNvPr id="4" name="image4.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3279,7 +3232,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image4.png" descr=""/>
+        <xdr:cNvPr id="5" name="image6.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3420,14 +3373,762 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="F32" activeCellId="0" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="0.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14"/>
+      <c r="B4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14"/>
+      <c r="B5" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14"/>
+      <c r="B6" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S76"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3565,566 +4266,6 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="29"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S76"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="n">
         <v>1</v>
@@ -4133,52 +4274,52 @@
         <v>35</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,52 +4331,52 @@
         <v>35</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,52 +4388,52 @@
         <v>35</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,52 +4445,52 @@
         <v>35</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,13 +4502,13 @@
         <v>35</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="31"/>
@@ -4392,52 +4533,52 @@
         <v>35</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,52 +4590,52 @@
         <v>35</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,52 +4647,52 @@
         <v>35</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,52 +4704,52 @@
         <v>35</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,52 +4761,52 @@
         <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,52 +4818,52 @@
         <v>35</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,52 +4875,52 @@
         <v>35</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,52 +4932,52 @@
         <v>35</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="24" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,52 +4989,52 @@
         <v>35</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="40" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,52 +5046,52 @@
         <v>35</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="40" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,52 +5103,52 @@
         <v>35</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,52 +5160,52 @@
         <v>35</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,52 +5217,52 @@
         <v>35</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="24" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,52 +5274,52 @@
         <v>35</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,49 +5332,49 @@
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,52 +5386,52 @@
         <v>35</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,52 +5443,52 @@
         <v>35</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="P24" s="32" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,52 +5500,52 @@
         <v>35</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="R25" s="35" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,46 +5557,46 @@
         <v>35</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="43"/>
       <c r="I26" s="42"/>
       <c r="J26" s="24" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="24" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5467,52 +5608,52 @@
         <v>35</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="S27" s="42" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,50 +5665,50 @@
         <v>35</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="45" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,52 +5720,52 @@
         <v>35</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="24" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="R29" s="24" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="S29" s="42" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,52 +5777,52 @@
         <v>35</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="O30" s="25" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="Q30" s="25" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="S30" s="47" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,52 +5834,52 @@
         <v>35</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="O31" s="25" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="R31" s="25" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="S31" s="47" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,49 +5892,49 @@
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="I32" s="49" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="O32" s="25" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="S32" s="47" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,52 +5946,52 @@
         <v>35</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="I33" s="49" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="O33" s="25" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="S33" s="47" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,49 +6004,49 @@
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="I34" s="49" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="S34" s="47" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,49 +6059,49 @@
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H35" s="49" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="I35" s="49" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="S35" s="47" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,49 +6114,49 @@
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="S36" s="47" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,49 +6169,49 @@
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="I37" s="49" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="O37" s="25" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q37" s="25" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="R37" s="25" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="S37" s="47" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,49 +6224,49 @@
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="O38" s="25" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="S38" s="47" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,52 +6278,52 @@
         <v>35</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I39" s="49" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="O39" s="25" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q39" s="25" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="R39" s="25" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="S39" s="47" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,49 +6336,49 @@
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="O40" s="25" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="S40" s="47" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,54 +6391,54 @@
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="25" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="I41" s="49" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="O41" s="25" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="R41" s="25" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="S41" s="47" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
@@ -6320,7 +6461,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="55" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B43" s="56" t="n">
         <v>40</v>
@@ -6329,52 +6470,52 @@
         <v>35</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F43" s="58" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="H43" s="59" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="J43" s="60" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="K43" s="60" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="L43" s="60" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="M43" s="57" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="N43" s="60" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="O43" s="57" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="P43" s="57" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Q43" s="57" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="R43" s="57" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="S43" s="58" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6386,52 +6527,52 @@
         <v>35</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="I44" s="49" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="O44" s="25" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="Q44" s="25" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="R44" s="25" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="S44" s="47" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,52 +6584,52 @@
         <v>35</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="I45" s="47" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="O45" s="25" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="Q45" s="25" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R45" s="25" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="S45" s="47" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,57 +6641,57 @@
         <v>35</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="H46" s="47" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="O46" s="25" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="Q46" s="25" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="R46" s="25" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="S46" s="47" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="55" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B47" s="28" t="n">
         <v>44</v>
@@ -6559,57 +6700,57 @@
         <v>35</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="G47" s="47" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="I47" s="49" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="J47" s="62" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="K47" s="62" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="L47" s="62" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="N47" s="62" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="O47" s="25" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="Q47" s="25" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="R47" s="25" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="S47" s="47" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="55" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B48" s="28" t="n">
         <v>45</v>
@@ -6618,57 +6759,57 @@
         <v>35</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="I48" s="49" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="O48" s="25" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="Q48" s="25" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="R48" s="25" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="S48" s="47" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="55" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B49" s="28" t="n">
         <v>46</v>
@@ -6677,57 +6818,57 @@
         <v>35</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="I49" s="49" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="O49" s="25" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="R49" s="25" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="S49" s="47" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B50" s="56" t="n">
         <v>47</v>
@@ -6736,57 +6877,57 @@
         <v>35</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="I50" s="49" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="M50" s="25" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="O50" s="25" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="R50" s="25" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="S50" s="47" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="63" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -6816,52 +6957,52 @@
         <v>35</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="M52" s="25" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="O52" s="25" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="R52" s="25" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="S52" s="47" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,52 +7014,52 @@
         <v>35</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="M53" s="25" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="N53" s="68" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="O53" s="25" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="R53" s="25" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="S53" s="47" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6930,52 +7071,52 @@
         <v>35</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="G54" s="49" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="L54" s="25" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="M54" s="25" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="O54" s="25" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="R54" s="25" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="S54" s="47" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,22 +7128,22 @@
         <v>35</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="I55" s="49" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="J55" s="24" t="s">
         <v>67</v>
@@ -7020,19 +7161,19 @@
         <v>67</v>
       </c>
       <c r="O55" s="25" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="Q55" s="25" t="s">
         <v>71</v>
       </c>
       <c r="R55" s="25" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="S55" s="47" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7044,52 +7185,52 @@
         <v>35</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="G56" s="49" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="I56" s="49" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="O56" s="25" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="R56" s="25" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="S56" s="47" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,52 +7242,52 @@
         <v>35</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="G57" s="49" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="I57" s="49" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="L57" s="25" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="M57" s="25" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="O57" s="25" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="R57" s="25" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="S57" s="47" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,52 +7299,52 @@
         <v>35</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="G58" s="49" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="I58" s="49" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M58" s="25" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="O58" s="25" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="R58" s="25" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="S58" s="47" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,52 +7356,52 @@
         <v>35</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="G59" s="49" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="I59" s="49" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="M59" s="25" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="N59" s="24" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="O59" s="25" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="P59" s="25" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="R59" s="25" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="S59" s="47" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,55 +7410,55 @@
         <v>9</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="G60" s="49" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="I60" s="49" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="L60" s="25" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="M60" s="25" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="N60" s="24" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="O60" s="25" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="R60" s="25" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="S60" s="47" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,52 +7470,52 @@
         <v>35</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="E61" s="69" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="G61" s="69" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="I61" s="69" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="J61" s="70" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="K61" s="69" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="L61" s="69" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="M61" s="69" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="N61" s="70" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="O61" s="69" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="P61" s="69" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="Q61" s="69" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="R61" s="69" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="S61" s="69" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7386,52 +7527,52 @@
         <v>35</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="G62" s="49" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="H62" s="49" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="I62" s="49" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="O62" s="25" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="P62" s="25" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="Q62" s="25" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="R62" s="25" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="S62" s="47" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,52 +7584,52 @@
         <v>35</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="E63" s="73" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="F63" s="74" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="G63" s="75" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="H63" s="75" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="I63" s="75" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="J63" s="76" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="K63" s="77" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="L63" s="77" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="M63" s="77" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="N63" s="77" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="O63" s="73" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="P63" s="73" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="Q63" s="73" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="R63" s="73" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="S63" s="73" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,52 +7641,52 @@
         <v>35</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="G64" s="49" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="I64" s="49" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="L64" s="31" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="M64" s="31" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="O64" s="25" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="P64" s="25" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="R64" s="25" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="S64" s="47" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,52 +7698,52 @@
         <v>35</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="I65" s="49" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="O65" s="25" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="P65" s="25" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="Q65" s="25" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="R65" s="25" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="S65" s="47" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7614,52 +7755,52 @@
         <v>35</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="K66" s="31" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="L66" s="31" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="M66" s="31" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="O66" s="25" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="Q66" s="25" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="R66" s="25" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="S66" s="47" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,52 +7812,52 @@
         <v>35</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="F67" s="78" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="G67" s="49" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="H67" s="49" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="I67" s="49" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="L67" s="31" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="M67" s="31" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="N67" s="31" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="O67" s="25" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="R67" s="25" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="S67" s="47" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7728,52 +7869,52 @@
         <v>35</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="G68" s="49" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="H68" s="49" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="I68" s="49" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="K68" s="31" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="L68" s="31" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="M68" s="31" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="O68" s="25" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="P68" s="24" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="Q68" s="24" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="R68" s="25" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="S68" s="47" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,52 +7926,52 @@
         <v>35</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F69" s="79" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="G69" s="49" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="I69" s="49" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="L69" s="31" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="M69" s="31" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="O69" s="25" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="P69" s="25" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="Q69" s="25" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="R69" s="25" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="S69" s="47" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,60 +7980,60 @@
         <v>19</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="N70" s="68" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="O70" s="25" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="Q70" s="25" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="R70" s="25" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="S70" s="47" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="80" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
@@ -7918,11 +8059,11 @@
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
       <c r="D72" s="81" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="82" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
@@ -7945,52 +8086,52 @@
         <v>35</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="E73" s="83" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F73" s="83" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="G73" s="83" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="H73" s="84" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="I73" s="84" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="J73" s="70" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="K73" s="70" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="L73" s="70" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="M73" s="83" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="N73" s="70" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="O73" s="83" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="P73" s="83" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="Q73" s="83" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="R73" s="83" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="S73" s="83" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8000,52 +8141,52 @@
         <v>35</v>
       </c>
       <c r="D74" s="62" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E74" s="70" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="G74" s="70" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="J74" s="70" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="K74" s="70" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="L74" s="70" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M74" s="70" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="N74" s="70" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="O74" s="70" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="P74" s="70" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="Q74" s="70" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="R74" s="70" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="S74" s="70" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,11 +8196,11 @@
         <v>35</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="61" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -8082,13 +8223,13 @@
         <v>35</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="F76" s="61" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -8117,7 +8258,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8142,7 +8282,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>20</v>
@@ -8199,7 +8339,7 @@
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
       <c r="N2" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R52, "'", ",", "'", 'Gympassport Translations 2'!$D52, "'", ",", "'", 'Gympassport Translations 2'!R52, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R52, "'", ",", "'", xxx!$D52, "'", ",", "'", xxx!R52, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Home','gym_partner_web.partner_data.menu.home_link_label','Home',10,'nl');</v>
       </c>
       <c r="O2" s="86"/>
@@ -8207,175 +8347,175 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!E53, ",", 'Gympassport Translations 2'!D53, ",", 'Gympassport Translations 2'!E53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!E53, ",", xxx!D53, ",", xxx!E53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins para validar,gym_partner_web.partner_data.menu.confirm_checkin_link_label,Check-ins para validar,0);</v>
       </c>
       <c r="B3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!F53, ",", 'Gympassport Translations 2'!E53, ",", 'Gympassport Translations 2'!F53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!F53, ",", xxx!E53, ",", xxx!F53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins to confirm,Check-ins para validar,Check-ins to confirm,0);</v>
       </c>
       <c r="C3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!G53, ",", 'Gympassport Translations 2'!F53, ",", 'Gympassport Translations 2'!G53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!G53, ",", xxx!F53, ",", xxx!G53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Pending validations,Check-ins to confirm,Pending validations,0);</v>
       </c>
       <c r="D3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!H53, ",", 'Gympassport Translations 2'!G53, ",", 'Gympassport Translations 2'!H53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!H53, ",", xxx!G53, ",", xxx!H53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Pending validations,Pending validations,Pending validations,0);</v>
       </c>
       <c r="E3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!I53, ",", 'Gympassport Translations 2'!H53, ",", 'Gympassport Translations 2'!I53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!I53, ",", xxx!H53, ",", xxx!I53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Pending validations,Pending validations,Pending validations,0);</v>
       </c>
       <c r="F3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!J53, ",", 'Gympassport Translations 2'!I53, ",", 'Gympassport Translations 2'!J53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!J53, ",", xxx!I53, ",", xxx!J53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins para validar,Pending validations,Check-ins para validar,0);</v>
       </c>
       <c r="G3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!K53, ",", 'Gympassport Translations 2'!J53, ",", 'Gympassport Translations 2'!K53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!K53, ",", xxx!J53, ",", xxx!K53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins a confirmar,Check-ins para validar,Check-ins a confirmar,0);</v>
       </c>
       <c r="H3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!L53, ",", 'Gympassport Translations 2'!K53, ",", 'Gympassport Translations 2'!L53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!L53, ",", xxx!K53, ",", xxx!L53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins a confirmar,Check-ins a confirmar,Check-ins a confirmar,0);</v>
       </c>
       <c r="I3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!M53, ",", 'Gympassport Translations 2'!L53, ",", 'Gympassport Translations 2'!M53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!M53, ",", xxx!L53, ",", xxx!M53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins a confirmar,Check-ins a confirmar,Check-ins a confirmar,0);</v>
       </c>
       <c r="J3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!N53, ",", 'Gympassport Translations 2'!M53, ",", 'Gympassport Translations 2'!N53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!N53, ",", xxx!M53, ",", xxx!N53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins para validar,Check-ins a confirmar,Check-ins para validar,0);</v>
       </c>
       <c r="K3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!O53, ",", 'Gympassport Translations 2'!N53, ",", 'Gympassport Translations 2'!O53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!O53, ",", xxx!N53, ",", xxx!O53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Ausstehende Validierungen,Check-ins para validar,Ausstehende Validierungen,0);</v>
       </c>
       <c r="L3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!P53, ",", 'Gympassport Translations 2'!O53, ",", 'Gympassport Translations 2'!P53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!P53, ",", xxx!O53, ",", xxx!P53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins en attente de validation,Ausstehende Validierungen,Check-ins en attente de validation,0);</v>
       </c>
       <c r="M3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!Q53, ",", 'Gympassport Translations 2'!P53, ",", 'Gympassport Translations 2'!Q53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!Q53, ",", xxx!P53, ",", xxx!Q53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-in da convalidare,Check-ins en attente de validation,Check-in da convalidare,0);</v>
       </c>
       <c r="N3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R53, "'", ",", "'", 'Gympassport Translations 2'!$D53, "'", ",", "'", 'Gympassport Translations 2'!R53, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R53, "'", ",", "'", xxx!$D53, "'", ",", "'", xxx!R53, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Te bevestigen check-ins','gym_partner_web.partner_data.menu.confirm_checkin_link_label','Te bevestigen check-ins',10,'nl');</v>
       </c>
       <c r="O3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!S53, ",", 'Gympassport Translations 2'!R53, ",", 'Gympassport Translations 2'!S53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!S53, ",", xxx!R53, ",", xxx!S53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (Check-ins para validar,Te bevestigen check-ins,Check-ins para validar,0);</v>
       </c>
       <c r="P3" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", 'Gympassport Translations 2'!T53, ",", 'Gympassport Translations 2'!S53, ",", 'Gympassport Translations 2'!T53, ",", 0, ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (", xxx!T53, ",", xxx!S53, ",", xxx!T53, ",", 0, ");")</f>
         <v>INSERT INTO TRANSLATIONS (value, `key`, candidate_text, translation_status, `locale`) values = (,Check-ins para validar,,0);</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R54, "'", ",", "'", 'Gympassport Translations 2'!$D54, "'", ",", "'", 'Gympassport Translations 2'!R54, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R54, "'", ",", "'", xxx!$D54, "'", ",", "'", xxx!R54, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Rapporten','gym_partner_web.partner_data.menu.reports_link_label','Rapporten',10,'nl');</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N5" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R55, "'", ",", "'", 'Gympassport Translations 2'!$D55, "'", ",", "'", 'Gympassport Translations 2'!R55, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R55, "'", ",", "'", xxx!$D55, "'", ",", "'", xxx!R55, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Mijn profiel','gym_partner_web.partner_data.menu.gym_page_label','Mijn profiel',10,'nl');</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N6" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R56, "'", ",", "'", 'Gympassport Translations 2'!$D56, "'", ",", "'", 'Gympassport Translations 2'!R56, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R56, "'", ",", "'", xxx!$D56, "'", ",", "'", xxx!R56, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Aangepaste integraties','gym_partner_web.partner_data.menu.custom_integrations_link_label','Aangepaste integraties',10,'nl');</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N7" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R57, "'", ",", "'", 'Gympassport Translations 2'!$D57, "'", ",", "'", 'Gympassport Translations 2'!R57, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R57, "'", ",", "'", xxx!$D57, "'", ",", "'", xxx!R57, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Mijn apparaten','gym_partner_web.partner_data.menu.my_devices_link_label','Mijn apparaten',10,'nl');</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N8" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R58, "'", ",", "'", 'Gympassport Translations 2'!$D58, "'", ",", "'", 'Gympassport Translations 2'!R58, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R58, "'", ",", "'", xxx!$D58, "'", ",", "'", xxx!R58, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Online Helpdesk','gym_partner_web.partner_data.menu.help_link_label','Online Helpdesk',10,'nl');</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R59, "'", ",", "'", 'Gympassport Translations 2'!$D59, "'", ",", "'", 'Gympassport Translations 2'!R59, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R59, "'", ",", "'", xxx!$D59, "'", ",", "'", xxx!R59, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Beta versie','gym_partner_web.partner_data.menu.beta_version','Beta versie',10,'nl');</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N10" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R60, "'", ",", "'", 'Gympassport Translations 2'!$D60, "'", ",", "'", 'Gympassport Translations 2'!R60, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R60, "'", ",", "'", xxx!$D60, "'", ",", "'", xxx!R60, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Taal','ui_components.language_selector.label','Taal',10,'nl');</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R61, "'", ",", "'", 'Gympassport Translations 2'!$D61, "'", ",", "'", 'Gympassport Translations 2'!R61, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R61, "'", ",", "'", xxx!$D61, "'", ",", "'", xxx!R61, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Uitloggen','gym_partner_web.partner_data.logout','Uitloggen',10,'nl');</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N12" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R62, "'", ",", "'", 'Gympassport Translations 2'!$D62, "'", ",", "'", 'Gympassport Translations 2'!R62, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R62, "'", ",", "'", xxx!$D62, "'", ",", "'", xxx!R62, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Welkom op ons nieuwe portaal','gym_partner_web.partner_data.home.welcome_new_gyms','Welkom op ons nieuwe portaal',10,'nl');</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N13" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R63, "'", ",", "'", 'Gympassport Translations 2'!$D63, "'", ",", "'", 'Gympassport Translations 2'!R63, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R63, "'", ",", "'", xxx!$D63, "'", ",", "'", xxx!R63, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Het nieuwe portaal is gemaakt om je te voorzien van nieuwe hulpmiddelen en informatie. Je hebt nu meer zelfstandigheid en controle over onze samenwerking. Het is een beta versie, wat inhoud dat de pagina nog aangepast kan worden en we zullen natuurlijk meer en meer nieuws toevoegen.','gym_partner_web.partner_data.home.home_description','Het nieuwe portaal is gemaakt om je te voorzien van nieuwe hulpmiddelen en informatie. Je hebt nu meer zelfstandigheid en controle over onze samenwerking. Het is een beta versie, wat inhoud dat de pagina nog aangepast kan worden en we zullen natuurlijk meer en meer nieuws toevoegen.',10,'nl');</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N14" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R64, "'", ",", "'", 'Gympassport Translations 2'!$D64, "'", ",", "'", 'Gympassport Translations 2'!R64, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R64, "'", ",", "'", xxx!$D64, "'", ",", "'", xxx!R64, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Gemakkelijk toegangsmenu','gym_partner_web.partner_data.home.card.menu_title','Gemakkelijk toegangsmenu',10,'nl');</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N15" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R65, "'", ",", "'", 'Gympassport Translations 2'!$D65, "'", ",", "'", 'Gympassport Translations 2'!R65, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R65, "'", ",", "'", xxx!$D65, "'", ",", "'", xxx!R65, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Om het gemakkelijk te maken alles te vinden wat je nodig hebt.','gym_partner_web.partner_data.home.card.menu_description','Om het gemakkelijk te maken alles te vinden wat je nodig hebt.',10,'nl');</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N16" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R66, "'", ",", "'", 'Gympassport Translations 2'!$D66, "'", ",", "'", 'Gympassport Translations 2'!R66, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R66, "'", ",", "'", xxx!$D66, "'", ",", "'", xxx!R66, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Nieuwe rapporten','gym_partner_web.partner_data.home.card.indicators_title','Nieuwe rapporten',10,'nl');</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N17" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R67, "'", ",", "'", 'Gympassport Translations 2'!$D67, "'", ",", "'", 'Gympassport Translations 2'!R67, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R67, "'", ",", "'", xxx!$D67, "'", ",", "'", xxx!R67, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Om je te voorzien van relevante analyses en cijfers over hoe Gympass wordt gebruikt in je sportlocatie.','gym_partner_web.partner_data.home.card.indicators_description','Om je te voorzien van relevante analyses en cijfers over hoe Gympass wordt gebruikt in je sportlocatie.',10,'nl');</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N18" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R68, "'", ",", "'", 'Gympassport Translations 2'!$D68, "'", ",", "'", 'Gympassport Translations 2'!R68, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R68, "'", ",", "'", xxx!$D68, "'", ",", "'", xxx!R68, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Toegankelijke bevestiging check-ins','gym_partner_web.partner_data.home.card.confirm_checkin_title','Toegankelijke bevestiging check-ins',10,'nl');</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N19" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R69, "'", ",", "'", 'Gympassport Translations 2'!$D69, "'", ",", "'", 'Gympassport Translations 2'!R69, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R69, "'", ",", "'", xxx!$D69, "'", ",", "'", xxx!R69, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Om jouw en je personeel snel en makkelijk toegang te verlenen om check-ins te bevestigen, zonder in telkens te hoeven inloggen.','gym_partner_web.partner_data.home.card.confirm_checkin_description','Om jouw en je personeel snel en makkelijk toegang te verlenen om check-ins te bevestigen, zonder in telkens te hoeven inloggen.',10,'nl');</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N20" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R70, "'", ",", "'", 'Gympassport Translations 2'!$D70, "'", ",", "'", 'Gympassport Translations 2'!R70, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R70, "'", ",", "'", xxx!$D70, "'", ",", "'", xxx!R70, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('Bevestigde check-ins','gym_partner_web.validate_page.validated_checkins','Bevestigde check-ins',10,'nl');</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N21" s="86" t="str">
-        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", 'Gympassport Translations 2'!$R77, "'", ",", "'", 'Gympassport Translations 2'!$D77, "'", ",", "'", 'Gympassport Translations 2'!R77, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
+        <f aca="false">CONCATENATE("INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values (", "'", xxx!$R77, "'", ",", "'", xxx!$D77, "'", ",", "'", xxx!R77, "'", ",", 10, ",", "'", $N$1, "'", ");")</f>
         <v>INSERT INTO translations (value, `key`, candidate_text, translation_status, `locale`) values ('','','',10,'nl');</v>
       </c>
     </row>
@@ -8675,22 +8815,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="87" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="B60" s="87"/>
       <c r="C60" s="87"/>
@@ -8702,7 +8842,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
